--- a/data/euro2020_matches.xlsx
+++ b/data/euro2020_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anssi\Desktop\Ohjelmointi\R_Projektit\euro2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8D1427-2122-4040-9123-E4E8965330B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F3E71C-D92A-4D0A-AA89-90ECD6FB353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15885" xr2:uid="{9D7E6EC3-9197-4D81-83DC-6BB96655B75D}"/>
+    <workbookView xWindow="2070" yWindow="5925" windowWidth="28800" windowHeight="15885" xr2:uid="{9D7E6EC3-9197-4D81-83DC-6BB96655B75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
   <si>
     <t>stage</t>
   </si>
@@ -178,16 +178,73 @@
   </si>
   <si>
     <t>f2</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>w41</t>
+  </si>
+  <si>
+    <t>w42</t>
+  </si>
+  <si>
+    <t>w39</t>
+  </si>
+  <si>
+    <t>w37</t>
+  </si>
+  <si>
+    <t>w40</t>
+  </si>
+  <si>
+    <t>w38</t>
+  </si>
+  <si>
+    <t>w43</t>
+  </si>
+  <si>
+    <t>w44</t>
+  </si>
+  <si>
+    <t>w46</t>
+  </si>
+  <si>
+    <t>w45</t>
+  </si>
+  <si>
+    <t>w48</t>
+  </si>
+  <si>
+    <t>w47</t>
+  </si>
+  <si>
+    <t>w49</t>
+  </si>
+  <si>
+    <t>w50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D5C27B-3078-4C3B-B1D1-00B06CF8CD02}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1350,106 @@
         <v>47</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
